--- a/transportation.xlsx
+++ b/transportation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="0" windowWidth="25600" windowHeight="20520" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="15100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="miles traveled" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>Cars and taxis</t>
   </si>
@@ -220,9 +220,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -253,7 +276,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -273,6 +296,29 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -603,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X994"/>
+  <dimension ref="A1:X953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -653,25 +699,25 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="4">
-        <v>1949</v>
+        <v>1990</v>
       </c>
       <c r="B2" s="3">
-        <v>12.6</v>
+        <v>208.7</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
+        <v>24.8</v>
       </c>
       <c r="D2" s="3">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="E2" s="3">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="F2" s="3">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="G2" s="4">
-        <v>28.9</v>
+        <v>255.3</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -693,25 +739,25 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="4">
-        <v>1950</v>
+        <v>1991</v>
       </c>
       <c r="B3" s="3">
-        <v>15.9</v>
+        <v>208.3</v>
       </c>
       <c r="C3" s="3">
-        <v>4.8</v>
+        <v>25.9</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
+        <v>15.2</v>
       </c>
       <c r="E3" s="3">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="F3" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4">
-        <v>33</v>
+        <v>255.8</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -733,25 +779,25 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="4">
-        <v>1951</v>
+        <v>1992</v>
       </c>
       <c r="B4" s="3">
-        <v>18.2</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3">
-        <v>5.0999999999999996</v>
+        <v>25.6</v>
       </c>
       <c r="D4" s="3">
-        <v>7.3</v>
+        <v>14.8</v>
       </c>
       <c r="E4" s="3">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="F4" s="3">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G4" s="4">
-        <v>36.700000000000003</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -773,25 +819,25 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="4">
-        <v>1952</v>
+        <v>1993</v>
       </c>
       <c r="B5" s="3">
-        <v>19</v>
+        <v>210.1</v>
       </c>
       <c r="C5" s="3">
-        <v>5.4</v>
+        <v>25.8</v>
       </c>
       <c r="D5" s="3">
-        <v>7</v>
+        <v>15.1</v>
       </c>
       <c r="E5" s="3">
-        <v>3.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F5" s="3">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G5" s="4">
-        <v>37.799999999999997</v>
+        <v>256.2</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -813,25 +859,25 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="4">
-        <v>1953</v>
+        <v>1994</v>
       </c>
       <c r="B6" s="3">
-        <v>20.8</v>
+        <v>214.4</v>
       </c>
       <c r="C6" s="3">
-        <v>5.7</v>
+        <v>26.9</v>
       </c>
       <c r="D6" s="3">
-        <v>7.1</v>
+        <v>15.4</v>
       </c>
       <c r="E6" s="3">
-        <v>4.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F6" s="3">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G6" s="4">
-        <v>40.299999999999997</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -853,25 +899,25 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="4">
-        <v>1954</v>
+        <v>1995</v>
       </c>
       <c r="B7" s="3">
-        <v>23.1</v>
+        <v>218.2</v>
       </c>
       <c r="C7" s="3">
-        <v>5.8</v>
+        <v>27.7</v>
       </c>
       <c r="D7" s="3">
-        <v>7.6</v>
+        <v>15.8</v>
       </c>
       <c r="E7" s="3">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F7" s="3">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4">
-        <v>43.4</v>
+        <v>267</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -893,25 +939,25 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="4">
-        <v>1955</v>
+        <v>1996</v>
       </c>
       <c r="B8" s="3">
-        <v>26.3</v>
+        <v>223.6</v>
       </c>
       <c r="C8" s="3">
-        <v>6.1</v>
+        <v>28.7</v>
       </c>
       <c r="D8" s="3">
-        <v>8.1999999999999993</v>
+        <v>16.3</v>
       </c>
       <c r="E8" s="3">
-        <v>4.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F8" s="3">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G8" s="4">
-        <v>47.8</v>
+        <v>274.10000000000002</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -933,25 +979,25 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="4">
-        <v>1956</v>
+        <v>1997</v>
       </c>
       <c r="B9" s="3">
-        <v>28.7</v>
+        <v>227.3</v>
       </c>
       <c r="C9" s="3">
-        <v>6.2</v>
+        <v>30.2</v>
       </c>
       <c r="D9" s="3">
-        <v>8.1</v>
+        <v>16.7</v>
       </c>
       <c r="E9" s="3">
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="F9" s="3">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="G9" s="4">
-        <v>50.2</v>
+        <v>279.8</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -973,25 +1019,25 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="4">
-        <v>1957</v>
+        <v>1998</v>
       </c>
       <c r="B10" s="3">
-        <v>28.1</v>
+        <v>230.3</v>
       </c>
       <c r="C10" s="3">
-        <v>6.4</v>
+        <v>31.6</v>
       </c>
       <c r="D10" s="3">
-        <v>7.8</v>
+        <v>17.2</v>
       </c>
       <c r="E10" s="3">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="F10" s="3">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G10" s="4">
-        <v>49.9</v>
+        <v>284.89999999999998</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1013,25 +1059,25 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="4">
-        <v>1958</v>
+        <v>1999</v>
       </c>
       <c r="B11" s="3">
-        <v>34.4</v>
+        <v>234.5</v>
       </c>
       <c r="C11" s="3">
-        <v>7.4</v>
+        <v>32.1</v>
       </c>
       <c r="D11" s="3">
-        <v>8.4</v>
+        <v>17.5</v>
       </c>
       <c r="E11" s="3">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="F11" s="3">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="G11" s="4">
-        <v>57.8</v>
+        <v>290.2</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1053,25 +1099,25 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="4">
-        <v>1959</v>
+        <v>2000</v>
       </c>
       <c r="B12" s="3">
-        <v>38.6</v>
+        <v>233.7</v>
       </c>
       <c r="C12" s="3">
-        <v>8.5</v>
+        <v>32.4</v>
       </c>
       <c r="D12" s="3">
-        <v>9.1</v>
+        <v>17.5</v>
       </c>
       <c r="E12" s="3">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="F12" s="3">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G12" s="4">
-        <v>64.8</v>
+        <v>289.7</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1093,25 +1139,25 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="4">
-        <v>1960</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="3">
-        <v>42.3</v>
+        <v>236.9</v>
       </c>
       <c r="C13" s="3">
-        <v>9.3000000000000007</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="D13" s="3">
-        <v>9.5</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E13" s="3">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="G13" s="4">
-        <v>69.7</v>
+        <v>293.7</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1133,25 +1179,25 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="4">
-        <v>1961</v>
+        <v>2002</v>
       </c>
       <c r="B14" s="3">
-        <v>47.8</v>
+        <v>242.7</v>
       </c>
       <c r="C14" s="3">
-        <v>10.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3">
-        <v>9.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="F14" s="3">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G14" s="4">
-        <v>76.099999999999994</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1173,25 +1219,25 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="4">
-        <v>1962</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="3">
-        <v>52</v>
+        <v>242.3</v>
       </c>
       <c r="C15" s="3">
-        <v>10.3</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D15" s="3">
-        <v>9.6</v>
+        <v>17.7</v>
       </c>
       <c r="E15" s="3">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="F15" s="3">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="G15" s="4">
-        <v>79.8</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1213,25 +1259,25 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="4">
-        <v>1963</v>
+        <v>2004</v>
       </c>
       <c r="B16" s="3">
-        <v>56.8</v>
+        <v>245</v>
       </c>
       <c r="C16" s="3">
-        <v>10.9</v>
+        <v>37.4</v>
       </c>
       <c r="D16" s="3">
-        <v>9.8000000000000007</v>
+        <v>18.2</v>
       </c>
       <c r="E16" s="3">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="F16" s="3">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G16" s="4">
-        <v>84.7</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1253,25 +1299,25 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="4">
-        <v>1964</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="3">
-        <v>65.7</v>
+        <v>244</v>
       </c>
       <c r="C17" s="3">
-        <v>11</v>
+        <v>38.4</v>
       </c>
       <c r="D17" s="3">
-        <v>10.8</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="F17" s="3">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G17" s="4">
-        <v>94.6</v>
+        <v>306.89999999999998</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1293,25 +1339,25 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="4">
-        <v>1965</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="3">
-        <v>72</v>
+        <v>246.9</v>
       </c>
       <c r="C18" s="3">
-        <v>11.8</v>
+        <v>39.9</v>
       </c>
       <c r="D18" s="3">
-        <v>10.7</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="F18" s="3">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="G18" s="4">
-        <v>101.1</v>
+        <v>311.39999999999998</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1333,25 +1379,25 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="4">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="3">
-        <v>78.599999999999994</v>
+        <v>247.3</v>
       </c>
       <c r="C19" s="3">
-        <v>11.8</v>
+        <v>41.9</v>
       </c>
       <c r="D19" s="3">
-        <v>10.9</v>
+        <v>18.2</v>
       </c>
       <c r="E19" s="3">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="F19" s="3">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="G19" s="4">
-        <v>107.4</v>
+        <v>314.10000000000002</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1373,25 +1419,25 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="4">
-        <v>1967</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="3">
-        <v>83.9</v>
+        <v>245.4</v>
       </c>
       <c r="C20" s="3">
-        <v>11.6</v>
+        <v>41.6</v>
       </c>
       <c r="D20" s="3">
-        <v>10.7</v>
+        <v>17.8</v>
       </c>
       <c r="E20" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F20" s="3">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="G20" s="4">
-        <v>111.8</v>
+        <v>311</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1413,25 +1459,25 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="4">
-        <v>1968</v>
+        <v>2009</v>
       </c>
       <c r="B21" s="3">
-        <v>88.7</v>
+        <v>244.8</v>
       </c>
       <c r="C21" s="3">
-        <v>11.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D21" s="3">
-        <v>10.9</v>
+        <v>16.3</v>
       </c>
       <c r="E21" s="3">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="F21" s="3">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="G21" s="4">
-        <v>116.6</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1453,25 +1499,25 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="4">
-        <v>1969</v>
+        <v>2010</v>
       </c>
       <c r="B22" s="3">
-        <v>91.9</v>
+        <v>239.8</v>
       </c>
       <c r="C22" s="3">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3">
-        <v>10.8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E22" s="3">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="F22" s="3">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="G22" s="4">
-        <v>119.7</v>
+        <v>303.2</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1493,25 +1539,25 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="4">
-        <v>1970</v>
+        <v>2011</v>
       </c>
       <c r="B23" s="3">
-        <v>96.3</v>
+        <v>240.7</v>
       </c>
       <c r="C23" s="3">
-        <v>12.6</v>
+        <v>41.4</v>
       </c>
       <c r="D23" s="3">
-        <v>10.9</v>
+        <v>15.9</v>
       </c>
       <c r="E23" s="3">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="F23" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="G23" s="4">
-        <v>124.6</v>
+        <v>303.8</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1533,25 +1579,25 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="4">
-        <v>1971</v>
+        <v>2012</v>
       </c>
       <c r="B24" s="3">
-        <v>102.6</v>
+        <v>240.3</v>
       </c>
       <c r="C24" s="3">
-        <v>13.2</v>
+        <v>41.3</v>
       </c>
       <c r="D24" s="3">
-        <v>11.2</v>
+        <v>15.5</v>
       </c>
       <c r="E24" s="3">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="F24" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="G24" s="4">
-        <v>131.69999999999999</v>
+        <v>302.60000000000002</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1573,25 +1619,25 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="4">
-        <v>1972</v>
+        <v>2013</v>
       </c>
       <c r="B25" s="3">
-        <v>108.6</v>
+        <v>240</v>
       </c>
       <c r="C25" s="3">
-        <v>13.8</v>
+        <v>42.6</v>
       </c>
       <c r="D25" s="3">
-        <v>11.4</v>
+        <v>15.7</v>
       </c>
       <c r="E25" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="F25" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="G25" s="4">
-        <v>138.30000000000001</v>
+        <v>303.7</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1613,25 +1659,25 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="4">
-        <v>1973</v>
+        <v>2014</v>
       </c>
       <c r="B26" s="3">
-        <v>114.3</v>
+        <v>245</v>
       </c>
       <c r="C26" s="3">
-        <v>14.5</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3">
-        <v>12</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E26" s="3">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="F26" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="G26" s="4">
-        <v>145.4</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1653,25 +1699,25 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="4">
-        <v>1974</v>
+        <v>2015</v>
       </c>
       <c r="B27" s="3">
-        <v>111.8</v>
+        <v>247.7</v>
       </c>
       <c r="C27" s="3">
-        <v>14.7</v>
+        <v>46.9</v>
       </c>
       <c r="D27" s="3">
-        <v>11.6</v>
+        <v>16.7</v>
       </c>
       <c r="E27" s="3">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F27" s="3">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G27" s="4">
-        <v>142.69999999999999</v>
+        <v>316.7</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1693,25 +1739,25 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="4">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="B28" s="3">
-        <v>112.8</v>
+        <v>251.6</v>
       </c>
       <c r="C28" s="3">
-        <v>14.6</v>
+        <v>49.2</v>
       </c>
       <c r="D28" s="3">
-        <v>11.4</v>
+        <v>16.8</v>
       </c>
       <c r="E28" s="3">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G28" s="4">
-        <v>144</v>
+        <v>322.89999999999998</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1733,25 +1779,25 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="4">
-        <v>1976</v>
+        <v>2017</v>
       </c>
       <c r="B29" s="3">
-        <v>118.3</v>
+        <v>254.4</v>
       </c>
       <c r="C29" s="3">
-        <v>15</v>
+        <v>50.5</v>
       </c>
       <c r="D29" s="3">
-        <v>11.9</v>
+        <v>17</v>
       </c>
       <c r="E29" s="3">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="F29" s="3">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="G29" s="4">
-        <v>151.19999999999999</v>
+        <v>327.10000000000002</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1772,27 +1818,13 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="4">
-        <v>1977</v>
-      </c>
-      <c r="B30" s="3">
-        <v>120.6</v>
-      </c>
-      <c r="C30" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="D30" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>153.4</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1812,28 +1844,14 @@
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="4">
-        <v>1978</v>
-      </c>
-      <c r="B31" s="3">
-        <v>125.8</v>
-      </c>
-      <c r="C31" s="3">
-        <v>15.7</v>
-      </c>
-      <c r="D31" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="G31" s="4">
-        <v>159.4</v>
-      </c>
-      <c r="H31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1852,28 +1870,14 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="4">
-        <v>1979</v>
-      </c>
-      <c r="B32" s="3">
-        <v>125.2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>15.6</v>
-      </c>
-      <c r="D32" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="G32" s="4">
-        <v>159</v>
-      </c>
-      <c r="H32" s="1"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1892,28 +1896,14 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="4">
-        <v>1980</v>
-      </c>
-      <c r="B33" s="3">
-        <v>133.6</v>
-      </c>
-      <c r="C33" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="D33" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G33" s="4">
-        <v>169</v>
-      </c>
-      <c r="H33" s="1"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1932,27 +1922,13 @@
       <c r="X33" s="1"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="4">
-        <v>1981</v>
-      </c>
-      <c r="B34" s="3">
-        <v>136.4</v>
-      </c>
-      <c r="C34" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G34" s="4">
-        <v>172.1</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1972,27 +1948,13 @@
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="4">
-        <v>1982</v>
-      </c>
-      <c r="B35" s="3">
-        <v>141.19999999999999</v>
-      </c>
-      <c r="C35" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G35" s="4">
-        <v>176.7</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2012,27 +1974,13 @@
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="4">
-        <v>1983</v>
-      </c>
-      <c r="B36" s="3">
-        <v>143.69999999999999</v>
-      </c>
-      <c r="C36" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="D36" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="E36" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G36" s="4">
-        <v>179</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2052,27 +2000,13 @@
       <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="4">
-        <v>1984</v>
-      </c>
-      <c r="B37" s="3">
-        <v>151.6</v>
-      </c>
-      <c r="C37" s="3">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D37" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G37" s="4">
-        <v>188.3</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2092,27 +2026,13 @@
       <c r="X37" s="1"/>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="4">
-        <v>1985</v>
-      </c>
-      <c r="B38" s="3">
-        <v>155.69999999999999</v>
-      </c>
-      <c r="C38" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="D38" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G38" s="4">
-        <v>192.5</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2132,27 +2052,13 @@
       <c r="X38" s="1"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="4">
-        <v>1986</v>
-      </c>
-      <c r="B39" s="3">
-        <v>164.3</v>
-      </c>
-      <c r="C39" s="3">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D39" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="E39" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G39" s="4">
-        <v>202.1</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2172,27 +2078,13 @@
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="4">
-        <v>1987</v>
-      </c>
-      <c r="B40" s="3">
-        <v>176.8</v>
-      </c>
-      <c r="C40" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="D40" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="E40" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G40" s="4">
-        <v>217.7</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2212,67 +2104,28 @@
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="4">
-        <v>1988</v>
-      </c>
-      <c r="B41" s="3">
-        <v>189.8</v>
-      </c>
-      <c r="C41" s="3">
-        <v>22.5</v>
-      </c>
-      <c r="D41" s="3">
-        <v>14.8</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="G41" s="4">
-        <v>233.4</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="4">
-        <v>1989</v>
-      </c>
-      <c r="B42" s="3">
-        <v>205.9</v>
-      </c>
-      <c r="C42" s="3">
-        <v>24.7</v>
-      </c>
-      <c r="D42" s="3">
-        <v>15.8</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="G42" s="4">
-        <v>252.8</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2292,27 +2145,13 @@
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="4">
-        <v>1990</v>
-      </c>
-      <c r="B43" s="3">
-        <v>208.7</v>
-      </c>
-      <c r="C43" s="3">
-        <v>24.8</v>
-      </c>
-      <c r="D43" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="G43" s="4">
-        <v>255.3</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2332,27 +2171,13 @@
       <c r="X43" s="1"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="4">
-        <v>1991</v>
-      </c>
-      <c r="B44" s="3">
-        <v>208.3</v>
-      </c>
-      <c r="C44" s="3">
-        <v>25.9</v>
-      </c>
-      <c r="D44" s="3">
-        <v>15.2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3</v>
-      </c>
-      <c r="G44" s="4">
-        <v>255.8</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2372,27 +2197,13 @@
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="4">
-        <v>1992</v>
-      </c>
-      <c r="B45" s="3">
-        <v>210</v>
-      </c>
-      <c r="C45" s="3">
-        <v>25.6</v>
-      </c>
-      <c r="D45" s="3">
-        <v>14.8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="G45" s="4">
-        <v>256.10000000000002</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2412,27 +2223,13 @@
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="4">
-        <v>1993</v>
-      </c>
-      <c r="B46" s="3">
-        <v>210.1</v>
-      </c>
-      <c r="C46" s="3">
-        <v>25.8</v>
-      </c>
-      <c r="D46" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="G46" s="4">
-        <v>256.2</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2452,27 +2249,13 @@
       <c r="X46" s="1"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="4">
-        <v>1994</v>
-      </c>
-      <c r="B47" s="3">
-        <v>214.4</v>
-      </c>
-      <c r="C47" s="3">
-        <v>26.9</v>
-      </c>
-      <c r="D47" s="3">
-        <v>15.4</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="G47" s="4">
-        <v>261.89999999999998</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2492,27 +2275,13 @@
       <c r="X47" s="1"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="4">
-        <v>1995</v>
-      </c>
-      <c r="B48" s="3">
-        <v>218.2</v>
-      </c>
-      <c r="C48" s="3">
-        <v>27.7</v>
-      </c>
-      <c r="D48" s="3">
-        <v>15.8</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3</v>
-      </c>
-      <c r="G48" s="4">
-        <v>267</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2532,27 +2301,13 @@
       <c r="X48" s="1"/>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="4">
-        <v>1996</v>
-      </c>
-      <c r="B49" s="3">
-        <v>223.6</v>
-      </c>
-      <c r="C49" s="3">
-        <v>28.7</v>
-      </c>
-      <c r="D49" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="G49" s="4">
-        <v>274.10000000000002</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2572,27 +2327,13 @@
       <c r="X49" s="1"/>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="4">
-        <v>1997</v>
-      </c>
-      <c r="B50" s="3">
-        <v>227.3</v>
-      </c>
-      <c r="C50" s="3">
-        <v>30.2</v>
-      </c>
-      <c r="D50" s="3">
-        <v>16.7</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F50" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="G50" s="4">
-        <v>279.8</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2612,27 +2353,13 @@
       <c r="X50" s="1"/>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="4">
-        <v>1998</v>
-      </c>
-      <c r="B51" s="3">
-        <v>230.3</v>
-      </c>
-      <c r="C51" s="3">
-        <v>31.6</v>
-      </c>
-      <c r="D51" s="3">
-        <v>17.2</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="F51" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="G51" s="4">
-        <v>284.89999999999998</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2652,27 +2379,13 @@
       <c r="X51" s="1"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="4">
-        <v>1999</v>
-      </c>
-      <c r="B52" s="3">
-        <v>234.5</v>
-      </c>
-      <c r="C52" s="3">
-        <v>32.1</v>
-      </c>
-      <c r="D52" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="G52" s="4">
-        <v>290.2</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2692,27 +2405,13 @@
       <c r="X52" s="1"/>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B53" s="3">
-        <v>233.7</v>
-      </c>
-      <c r="C53" s="3">
-        <v>32.4</v>
-      </c>
-      <c r="D53" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F53" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="G53" s="4">
-        <v>289.7</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2732,27 +2431,13 @@
       <c r="X53" s="1"/>
     </row>
     <row r="54" spans="1:24">
-      <c r="A54" s="4">
-        <v>2001</v>
-      </c>
-      <c r="B54" s="3">
-        <v>236.9</v>
-      </c>
-      <c r="C54" s="3">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="D54" s="3">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E54" s="3">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="G54" s="4">
-        <v>293.7</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2772,27 +2457,13 @@
       <c r="X54" s="1"/>
     </row>
     <row r="55" spans="1:24">
-      <c r="A55" s="4">
-        <v>2002</v>
-      </c>
-      <c r="B55" s="3">
-        <v>242.7</v>
-      </c>
-      <c r="C55" s="3">
-        <v>34</v>
-      </c>
-      <c r="D55" s="3">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E55" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="G55" s="4">
-        <v>300.60000000000002</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2812,27 +2483,13 @@
       <c r="X55" s="1"/>
     </row>
     <row r="56" spans="1:24">
-      <c r="A56" s="4">
-        <v>2003</v>
-      </c>
-      <c r="B56" s="3">
-        <v>242.3</v>
-      </c>
-      <c r="C56" s="3">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D56" s="3">
-        <v>17.7</v>
-      </c>
-      <c r="E56" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="F56" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="G56" s="4">
-        <v>302.39999999999998</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2852,27 +2509,13 @@
       <c r="X56" s="1"/>
     </row>
     <row r="57" spans="1:24">
-      <c r="A57" s="4">
-        <v>2004</v>
-      </c>
-      <c r="B57" s="3">
-        <v>245</v>
-      </c>
-      <c r="C57" s="3">
-        <v>37.4</v>
-      </c>
-      <c r="D57" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="E57" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="G57" s="4">
-        <v>306.89999999999998</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2892,27 +2535,13 @@
       <c r="X57" s="1"/>
     </row>
     <row r="58" spans="1:24">
-      <c r="A58" s="4">
-        <v>2005</v>
-      </c>
-      <c r="B58" s="3">
-        <v>244</v>
-      </c>
-      <c r="C58" s="3">
-        <v>38.4</v>
-      </c>
-      <c r="D58" s="3">
-        <v>18</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="G58" s="4">
-        <v>306.89999999999998</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2932,27 +2561,13 @@
       <c r="X58" s="1"/>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" s="4">
-        <v>2006</v>
-      </c>
-      <c r="B59" s="3">
-        <v>246.9</v>
-      </c>
-      <c r="C59" s="3">
-        <v>39.9</v>
-      </c>
-      <c r="D59" s="3">
-        <v>18</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="G59" s="4">
-        <v>311.39999999999998</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2972,27 +2587,13 @@
       <c r="X59" s="1"/>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" s="4">
-        <v>2007</v>
-      </c>
-      <c r="B60" s="3">
-        <v>247.3</v>
-      </c>
-      <c r="C60" s="3">
-        <v>41.9</v>
-      </c>
-      <c r="D60" s="3">
-        <v>18.2</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="G60" s="4">
-        <v>314.10000000000002</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3012,27 +2613,13 @@
       <c r="X60" s="1"/>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" s="4">
-        <v>2008</v>
-      </c>
-      <c r="B61" s="3">
-        <v>245.4</v>
-      </c>
-      <c r="C61" s="3">
-        <v>41.6</v>
-      </c>
-      <c r="D61" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="G61" s="4">
-        <v>311</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3052,27 +2639,13 @@
       <c r="X61" s="1"/>
     </row>
     <row r="62" spans="1:24">
-      <c r="A62" s="4">
-        <v>2009</v>
-      </c>
-      <c r="B62" s="3">
-        <v>244.8</v>
-      </c>
-      <c r="C62" s="3">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="D62" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="E62" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="G62" s="4">
-        <v>308.10000000000002</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3092,27 +2665,13 @@
       <c r="X62" s="1"/>
     </row>
     <row r="63" spans="1:24">
-      <c r="A63" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B63" s="3">
-        <v>239.8</v>
-      </c>
-      <c r="C63" s="3">
-        <v>41</v>
-      </c>
-      <c r="D63" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="F63" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="G63" s="4">
-        <v>303.2</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3132,27 +2691,13 @@
       <c r="X63" s="1"/>
     </row>
     <row r="64" spans="1:24">
-      <c r="A64" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B64" s="3">
-        <v>240.7</v>
-      </c>
-      <c r="C64" s="3">
-        <v>41.4</v>
-      </c>
-      <c r="D64" s="3">
-        <v>15.9</v>
-      </c>
-      <c r="E64" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="F64" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="G64" s="4">
-        <v>303.8</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3172,27 +2717,13 @@
       <c r="X64" s="1"/>
     </row>
     <row r="65" spans="1:24">
-      <c r="A65" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B65" s="3">
-        <v>240.3</v>
-      </c>
-      <c r="C65" s="3">
-        <v>41.3</v>
-      </c>
-      <c r="D65" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="E65" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F65" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="G65" s="4">
-        <v>302.60000000000002</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3212,27 +2743,13 @@
       <c r="X65" s="1"/>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B66" s="3">
-        <v>240</v>
-      </c>
-      <c r="C66" s="3">
-        <v>42.6</v>
-      </c>
-      <c r="D66" s="3">
-        <v>15.7</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="G66" s="4">
-        <v>303.7</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -3252,27 +2769,13 @@
       <c r="X66" s="1"/>
     </row>
     <row r="67" spans="1:24">
-      <c r="A67" s="4">
-        <v>2014</v>
-      </c>
-      <c r="B67" s="3">
-        <v>245</v>
-      </c>
-      <c r="C67" s="3">
-        <v>45</v>
-      </c>
-      <c r="D67" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="E67" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F67" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="G67" s="4">
-        <v>311.60000000000002</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3292,27 +2795,13 @@
       <c r="X67" s="1"/>
     </row>
     <row r="68" spans="1:24">
-      <c r="A68" s="4">
-        <v>2015</v>
-      </c>
-      <c r="B68" s="3">
-        <v>247.7</v>
-      </c>
-      <c r="C68" s="3">
-        <v>46.9</v>
-      </c>
-      <c r="D68" s="3">
-        <v>16.7</v>
-      </c>
-      <c r="E68" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F68" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="G68" s="4">
-        <v>316.7</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3332,27 +2821,13 @@
       <c r="X68" s="1"/>
     </row>
     <row r="69" spans="1:24">
-      <c r="A69" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B69" s="3">
-        <v>251.6</v>
-      </c>
-      <c r="C69" s="3">
-        <v>49.2</v>
-      </c>
-      <c r="D69" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="E69" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F69" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G69" s="4">
-        <v>322.89999999999998</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3372,27 +2847,13 @@
       <c r="X69" s="1"/>
     </row>
     <row r="70" spans="1:24">
-      <c r="A70" s="4">
-        <v>2017</v>
-      </c>
-      <c r="B70" s="3">
-        <v>254.4</v>
-      </c>
-      <c r="C70" s="3">
-        <v>50.5</v>
-      </c>
-      <c r="D70" s="3">
-        <v>17</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G70" s="4">
-        <v>327.10000000000002</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -3438,14 +2899,14 @@
       <c r="X71" s="1"/>
     </row>
     <row r="72" spans="1:24">
-      <c r="A72" s="3"/>
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3464,14 +2925,14 @@
       <c r="X72" s="1"/>
     </row>
     <row r="73" spans="1:24">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3490,14 +2951,14 @@
       <c r="X73" s="1"/>
     </row>
     <row r="74" spans="1:24">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3516,8 +2977,8 @@
       <c r="X74" s="1"/>
     </row>
     <row r="75" spans="1:24">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3542,8 +3003,8 @@
       <c r="X75" s="1"/>
     </row>
     <row r="76" spans="1:24">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3569,7 +3030,7 @@
     </row>
     <row r="77" spans="1:24">
       <c r="A77" s="1"/>
-      <c r="B77" s="3"/>
+      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3672,7 +3133,7 @@
       <c r="X80" s="1"/>
     </row>
     <row r="81" spans="1:24">
-      <c r="A81" s="3"/>
+      <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3698,7 +3159,7 @@
       <c r="X81" s="1"/>
     </row>
     <row r="82" spans="1:24">
-      <c r="A82" s="2"/>
+      <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3711,6 +3172,17 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" s="1"/>
@@ -26358,1074 +25830,9 @@
       <c r="W953" s="1"/>
       <c r="X953" s="1"/>
     </row>
-    <row r="954" spans="1:24">
-      <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="1"/>
-      <c r="E954" s="1"/>
-      <c r="F954" s="1"/>
-      <c r="G954" s="1"/>
-      <c r="H954" s="1"/>
-      <c r="I954" s="1"/>
-      <c r="J954" s="1"/>
-      <c r="K954" s="1"/>
-      <c r="L954" s="1"/>
-      <c r="M954" s="1"/>
-      <c r="N954" s="1"/>
-      <c r="O954" s="1"/>
-      <c r="P954" s="1"/>
-      <c r="Q954" s="1"/>
-      <c r="R954" s="1"/>
-      <c r="S954" s="1"/>
-      <c r="T954" s="1"/>
-      <c r="U954" s="1"/>
-      <c r="V954" s="1"/>
-      <c r="W954" s="1"/>
-      <c r="X954" s="1"/>
-    </row>
-    <row r="955" spans="1:24">
-      <c r="A955" s="1"/>
-      <c r="B955" s="1"/>
-      <c r="C955" s="1"/>
-      <c r="D955" s="1"/>
-      <c r="E955" s="1"/>
-      <c r="F955" s="1"/>
-      <c r="G955" s="1"/>
-      <c r="H955" s="1"/>
-      <c r="I955" s="1"/>
-      <c r="J955" s="1"/>
-      <c r="K955" s="1"/>
-      <c r="L955" s="1"/>
-      <c r="M955" s="1"/>
-      <c r="N955" s="1"/>
-      <c r="O955" s="1"/>
-      <c r="P955" s="1"/>
-      <c r="Q955" s="1"/>
-      <c r="R955" s="1"/>
-      <c r="S955" s="1"/>
-      <c r="T955" s="1"/>
-      <c r="U955" s="1"/>
-      <c r="V955" s="1"/>
-      <c r="W955" s="1"/>
-      <c r="X955" s="1"/>
-    </row>
-    <row r="956" spans="1:24">
-      <c r="A956" s="1"/>
-      <c r="B956" s="1"/>
-      <c r="C956" s="1"/>
-      <c r="D956" s="1"/>
-      <c r="E956" s="1"/>
-      <c r="F956" s="1"/>
-      <c r="G956" s="1"/>
-      <c r="H956" s="1"/>
-      <c r="I956" s="1"/>
-      <c r="J956" s="1"/>
-      <c r="K956" s="1"/>
-      <c r="L956" s="1"/>
-      <c r="M956" s="1"/>
-      <c r="N956" s="1"/>
-      <c r="O956" s="1"/>
-      <c r="P956" s="1"/>
-      <c r="Q956" s="1"/>
-      <c r="R956" s="1"/>
-      <c r="S956" s="1"/>
-      <c r="T956" s="1"/>
-      <c r="U956" s="1"/>
-      <c r="V956" s="1"/>
-      <c r="W956" s="1"/>
-      <c r="X956" s="1"/>
-    </row>
-    <row r="957" spans="1:24">
-      <c r="A957" s="1"/>
-      <c r="B957" s="1"/>
-      <c r="C957" s="1"/>
-      <c r="D957" s="1"/>
-      <c r="E957" s="1"/>
-      <c r="F957" s="1"/>
-      <c r="G957" s="1"/>
-      <c r="H957" s="1"/>
-      <c r="I957" s="1"/>
-      <c r="J957" s="1"/>
-      <c r="K957" s="1"/>
-      <c r="L957" s="1"/>
-      <c r="M957" s="1"/>
-      <c r="N957" s="1"/>
-      <c r="O957" s="1"/>
-      <c r="P957" s="1"/>
-      <c r="Q957" s="1"/>
-      <c r="R957" s="1"/>
-      <c r="S957" s="1"/>
-      <c r="T957" s="1"/>
-      <c r="U957" s="1"/>
-      <c r="V957" s="1"/>
-      <c r="W957" s="1"/>
-      <c r="X957" s="1"/>
-    </row>
-    <row r="958" spans="1:24">
-      <c r="A958" s="1"/>
-      <c r="B958" s="1"/>
-      <c r="C958" s="1"/>
-      <c r="D958" s="1"/>
-      <c r="E958" s="1"/>
-      <c r="F958" s="1"/>
-      <c r="G958" s="1"/>
-      <c r="H958" s="1"/>
-      <c r="I958" s="1"/>
-      <c r="J958" s="1"/>
-      <c r="K958" s="1"/>
-      <c r="L958" s="1"/>
-      <c r="M958" s="1"/>
-      <c r="N958" s="1"/>
-      <c r="O958" s="1"/>
-      <c r="P958" s="1"/>
-      <c r="Q958" s="1"/>
-      <c r="R958" s="1"/>
-      <c r="S958" s="1"/>
-      <c r="T958" s="1"/>
-      <c r="U958" s="1"/>
-      <c r="V958" s="1"/>
-      <c r="W958" s="1"/>
-      <c r="X958" s="1"/>
-    </row>
-    <row r="959" spans="1:24">
-      <c r="A959" s="1"/>
-      <c r="B959" s="1"/>
-      <c r="C959" s="1"/>
-      <c r="D959" s="1"/>
-      <c r="E959" s="1"/>
-      <c r="F959" s="1"/>
-      <c r="G959" s="1"/>
-      <c r="H959" s="1"/>
-      <c r="I959" s="1"/>
-      <c r="J959" s="1"/>
-      <c r="K959" s="1"/>
-      <c r="L959" s="1"/>
-      <c r="M959" s="1"/>
-      <c r="N959" s="1"/>
-      <c r="O959" s="1"/>
-      <c r="P959" s="1"/>
-      <c r="Q959" s="1"/>
-      <c r="R959" s="1"/>
-      <c r="S959" s="1"/>
-      <c r="T959" s="1"/>
-      <c r="U959" s="1"/>
-      <c r="V959" s="1"/>
-      <c r="W959" s="1"/>
-      <c r="X959" s="1"/>
-    </row>
-    <row r="960" spans="1:24">
-      <c r="A960" s="1"/>
-      <c r="B960" s="1"/>
-      <c r="C960" s="1"/>
-      <c r="D960" s="1"/>
-      <c r="E960" s="1"/>
-      <c r="F960" s="1"/>
-      <c r="G960" s="1"/>
-      <c r="H960" s="1"/>
-      <c r="I960" s="1"/>
-      <c r="J960" s="1"/>
-      <c r="K960" s="1"/>
-      <c r="L960" s="1"/>
-      <c r="M960" s="1"/>
-      <c r="N960" s="1"/>
-      <c r="O960" s="1"/>
-      <c r="P960" s="1"/>
-      <c r="Q960" s="1"/>
-      <c r="R960" s="1"/>
-      <c r="S960" s="1"/>
-      <c r="T960" s="1"/>
-      <c r="U960" s="1"/>
-      <c r="V960" s="1"/>
-      <c r="W960" s="1"/>
-      <c r="X960" s="1"/>
-    </row>
-    <row r="961" spans="1:24">
-      <c r="A961" s="1"/>
-      <c r="B961" s="1"/>
-      <c r="C961" s="1"/>
-      <c r="D961" s="1"/>
-      <c r="E961" s="1"/>
-      <c r="F961" s="1"/>
-      <c r="G961" s="1"/>
-      <c r="H961" s="1"/>
-      <c r="I961" s="1"/>
-      <c r="J961" s="1"/>
-      <c r="K961" s="1"/>
-      <c r="L961" s="1"/>
-      <c r="M961" s="1"/>
-      <c r="N961" s="1"/>
-      <c r="O961" s="1"/>
-      <c r="P961" s="1"/>
-      <c r="Q961" s="1"/>
-      <c r="R961" s="1"/>
-      <c r="S961" s="1"/>
-      <c r="T961" s="1"/>
-      <c r="U961" s="1"/>
-      <c r="V961" s="1"/>
-      <c r="W961" s="1"/>
-      <c r="X961" s="1"/>
-    </row>
-    <row r="962" spans="1:24">
-      <c r="A962" s="1"/>
-      <c r="B962" s="1"/>
-      <c r="C962" s="1"/>
-      <c r="D962" s="1"/>
-      <c r="E962" s="1"/>
-      <c r="F962" s="1"/>
-      <c r="G962" s="1"/>
-      <c r="H962" s="1"/>
-      <c r="I962" s="1"/>
-      <c r="J962" s="1"/>
-      <c r="K962" s="1"/>
-      <c r="L962" s="1"/>
-      <c r="M962" s="1"/>
-      <c r="N962" s="1"/>
-      <c r="O962" s="1"/>
-      <c r="P962" s="1"/>
-      <c r="Q962" s="1"/>
-      <c r="R962" s="1"/>
-      <c r="S962" s="1"/>
-      <c r="T962" s="1"/>
-      <c r="U962" s="1"/>
-      <c r="V962" s="1"/>
-      <c r="W962" s="1"/>
-      <c r="X962" s="1"/>
-    </row>
-    <row r="963" spans="1:24">
-      <c r="A963" s="1"/>
-      <c r="B963" s="1"/>
-      <c r="C963" s="1"/>
-      <c r="D963" s="1"/>
-      <c r="E963" s="1"/>
-      <c r="F963" s="1"/>
-      <c r="G963" s="1"/>
-      <c r="H963" s="1"/>
-      <c r="I963" s="1"/>
-      <c r="J963" s="1"/>
-      <c r="K963" s="1"/>
-      <c r="L963" s="1"/>
-      <c r="M963" s="1"/>
-      <c r="N963" s="1"/>
-      <c r="O963" s="1"/>
-      <c r="P963" s="1"/>
-      <c r="Q963" s="1"/>
-      <c r="R963" s="1"/>
-      <c r="S963" s="1"/>
-      <c r="T963" s="1"/>
-      <c r="U963" s="1"/>
-      <c r="V963" s="1"/>
-      <c r="W963" s="1"/>
-      <c r="X963" s="1"/>
-    </row>
-    <row r="964" spans="1:24">
-      <c r="A964" s="1"/>
-      <c r="B964" s="1"/>
-      <c r="C964" s="1"/>
-      <c r="D964" s="1"/>
-      <c r="E964" s="1"/>
-      <c r="F964" s="1"/>
-      <c r="G964" s="1"/>
-      <c r="H964" s="1"/>
-      <c r="I964" s="1"/>
-      <c r="J964" s="1"/>
-      <c r="K964" s="1"/>
-      <c r="L964" s="1"/>
-      <c r="M964" s="1"/>
-      <c r="N964" s="1"/>
-      <c r="O964" s="1"/>
-      <c r="P964" s="1"/>
-      <c r="Q964" s="1"/>
-      <c r="R964" s="1"/>
-      <c r="S964" s="1"/>
-      <c r="T964" s="1"/>
-      <c r="U964" s="1"/>
-      <c r="V964" s="1"/>
-      <c r="W964" s="1"/>
-      <c r="X964" s="1"/>
-    </row>
-    <row r="965" spans="1:24">
-      <c r="A965" s="1"/>
-      <c r="B965" s="1"/>
-      <c r="C965" s="1"/>
-      <c r="D965" s="1"/>
-      <c r="E965" s="1"/>
-      <c r="F965" s="1"/>
-      <c r="G965" s="1"/>
-      <c r="H965" s="1"/>
-      <c r="I965" s="1"/>
-      <c r="J965" s="1"/>
-      <c r="K965" s="1"/>
-      <c r="L965" s="1"/>
-      <c r="M965" s="1"/>
-      <c r="N965" s="1"/>
-      <c r="O965" s="1"/>
-      <c r="P965" s="1"/>
-      <c r="Q965" s="1"/>
-      <c r="R965" s="1"/>
-      <c r="S965" s="1"/>
-      <c r="T965" s="1"/>
-      <c r="U965" s="1"/>
-      <c r="V965" s="1"/>
-      <c r="W965" s="1"/>
-      <c r="X965" s="1"/>
-    </row>
-    <row r="966" spans="1:24">
-      <c r="A966" s="1"/>
-      <c r="B966" s="1"/>
-      <c r="C966" s="1"/>
-      <c r="D966" s="1"/>
-      <c r="E966" s="1"/>
-      <c r="F966" s="1"/>
-      <c r="G966" s="1"/>
-      <c r="H966" s="1"/>
-      <c r="I966" s="1"/>
-      <c r="J966" s="1"/>
-      <c r="K966" s="1"/>
-      <c r="L966" s="1"/>
-      <c r="M966" s="1"/>
-      <c r="N966" s="1"/>
-      <c r="O966" s="1"/>
-      <c r="P966" s="1"/>
-      <c r="Q966" s="1"/>
-      <c r="R966" s="1"/>
-      <c r="S966" s="1"/>
-      <c r="T966" s="1"/>
-      <c r="U966" s="1"/>
-      <c r="V966" s="1"/>
-      <c r="W966" s="1"/>
-      <c r="X966" s="1"/>
-    </row>
-    <row r="967" spans="1:24">
-      <c r="A967" s="1"/>
-      <c r="B967" s="1"/>
-      <c r="C967" s="1"/>
-      <c r="D967" s="1"/>
-      <c r="E967" s="1"/>
-      <c r="F967" s="1"/>
-      <c r="G967" s="1"/>
-      <c r="H967" s="1"/>
-      <c r="I967" s="1"/>
-      <c r="J967" s="1"/>
-      <c r="K967" s="1"/>
-      <c r="L967" s="1"/>
-      <c r="M967" s="1"/>
-      <c r="N967" s="1"/>
-      <c r="O967" s="1"/>
-      <c r="P967" s="1"/>
-      <c r="Q967" s="1"/>
-      <c r="R967" s="1"/>
-      <c r="S967" s="1"/>
-      <c r="T967" s="1"/>
-      <c r="U967" s="1"/>
-      <c r="V967" s="1"/>
-      <c r="W967" s="1"/>
-      <c r="X967" s="1"/>
-    </row>
-    <row r="968" spans="1:24">
-      <c r="A968" s="1"/>
-      <c r="B968" s="1"/>
-      <c r="C968" s="1"/>
-      <c r="D968" s="1"/>
-      <c r="E968" s="1"/>
-      <c r="F968" s="1"/>
-      <c r="G968" s="1"/>
-      <c r="H968" s="1"/>
-      <c r="I968" s="1"/>
-      <c r="J968" s="1"/>
-      <c r="K968" s="1"/>
-      <c r="L968" s="1"/>
-      <c r="M968" s="1"/>
-      <c r="N968" s="1"/>
-      <c r="O968" s="1"/>
-      <c r="P968" s="1"/>
-      <c r="Q968" s="1"/>
-      <c r="R968" s="1"/>
-      <c r="S968" s="1"/>
-      <c r="T968" s="1"/>
-      <c r="U968" s="1"/>
-      <c r="V968" s="1"/>
-      <c r="W968" s="1"/>
-      <c r="X968" s="1"/>
-    </row>
-    <row r="969" spans="1:24">
-      <c r="A969" s="1"/>
-      <c r="B969" s="1"/>
-      <c r="C969" s="1"/>
-      <c r="D969" s="1"/>
-      <c r="E969" s="1"/>
-      <c r="F969" s="1"/>
-      <c r="G969" s="1"/>
-      <c r="H969" s="1"/>
-      <c r="I969" s="1"/>
-      <c r="J969" s="1"/>
-      <c r="K969" s="1"/>
-      <c r="L969" s="1"/>
-      <c r="M969" s="1"/>
-      <c r="N969" s="1"/>
-      <c r="O969" s="1"/>
-      <c r="P969" s="1"/>
-      <c r="Q969" s="1"/>
-      <c r="R969" s="1"/>
-      <c r="S969" s="1"/>
-      <c r="T969" s="1"/>
-      <c r="U969" s="1"/>
-      <c r="V969" s="1"/>
-      <c r="W969" s="1"/>
-      <c r="X969" s="1"/>
-    </row>
-    <row r="970" spans="1:24">
-      <c r="A970" s="1"/>
-      <c r="B970" s="1"/>
-      <c r="C970" s="1"/>
-      <c r="D970" s="1"/>
-      <c r="E970" s="1"/>
-      <c r="F970" s="1"/>
-      <c r="G970" s="1"/>
-      <c r="H970" s="1"/>
-      <c r="I970" s="1"/>
-      <c r="J970" s="1"/>
-      <c r="K970" s="1"/>
-      <c r="L970" s="1"/>
-      <c r="M970" s="1"/>
-      <c r="N970" s="1"/>
-      <c r="O970" s="1"/>
-      <c r="P970" s="1"/>
-      <c r="Q970" s="1"/>
-      <c r="R970" s="1"/>
-      <c r="S970" s="1"/>
-      <c r="T970" s="1"/>
-      <c r="U970" s="1"/>
-      <c r="V970" s="1"/>
-      <c r="W970" s="1"/>
-      <c r="X970" s="1"/>
-    </row>
-    <row r="971" spans="1:24">
-      <c r="A971" s="1"/>
-      <c r="B971" s="1"/>
-      <c r="C971" s="1"/>
-      <c r="D971" s="1"/>
-      <c r="E971" s="1"/>
-      <c r="F971" s="1"/>
-      <c r="G971" s="1"/>
-      <c r="H971" s="1"/>
-      <c r="I971" s="1"/>
-      <c r="J971" s="1"/>
-      <c r="K971" s="1"/>
-      <c r="L971" s="1"/>
-      <c r="M971" s="1"/>
-      <c r="N971" s="1"/>
-      <c r="O971" s="1"/>
-      <c r="P971" s="1"/>
-      <c r="Q971" s="1"/>
-      <c r="R971" s="1"/>
-      <c r="S971" s="1"/>
-      <c r="T971" s="1"/>
-      <c r="U971" s="1"/>
-      <c r="V971" s="1"/>
-      <c r="W971" s="1"/>
-      <c r="X971" s="1"/>
-    </row>
-    <row r="972" spans="1:24">
-      <c r="A972" s="1"/>
-      <c r="B972" s="1"/>
-      <c r="C972" s="1"/>
-      <c r="D972" s="1"/>
-      <c r="E972" s="1"/>
-      <c r="F972" s="1"/>
-      <c r="G972" s="1"/>
-      <c r="H972" s="1"/>
-      <c r="I972" s="1"/>
-      <c r="J972" s="1"/>
-      <c r="K972" s="1"/>
-      <c r="L972" s="1"/>
-      <c r="M972" s="1"/>
-      <c r="N972" s="1"/>
-      <c r="O972" s="1"/>
-      <c r="P972" s="1"/>
-      <c r="Q972" s="1"/>
-      <c r="R972" s="1"/>
-      <c r="S972" s="1"/>
-      <c r="T972" s="1"/>
-      <c r="U972" s="1"/>
-      <c r="V972" s="1"/>
-      <c r="W972" s="1"/>
-      <c r="X972" s="1"/>
-    </row>
-    <row r="973" spans="1:24">
-      <c r="A973" s="1"/>
-      <c r="B973" s="1"/>
-      <c r="C973" s="1"/>
-      <c r="D973" s="1"/>
-      <c r="E973" s="1"/>
-      <c r="F973" s="1"/>
-      <c r="G973" s="1"/>
-      <c r="H973" s="1"/>
-      <c r="I973" s="1"/>
-      <c r="J973" s="1"/>
-      <c r="K973" s="1"/>
-      <c r="L973" s="1"/>
-      <c r="M973" s="1"/>
-      <c r="N973" s="1"/>
-      <c r="O973" s="1"/>
-      <c r="P973" s="1"/>
-      <c r="Q973" s="1"/>
-      <c r="R973" s="1"/>
-      <c r="S973" s="1"/>
-      <c r="T973" s="1"/>
-      <c r="U973" s="1"/>
-      <c r="V973" s="1"/>
-      <c r="W973" s="1"/>
-      <c r="X973" s="1"/>
-    </row>
-    <row r="974" spans="1:24">
-      <c r="A974" s="1"/>
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-      <c r="E974" s="1"/>
-      <c r="F974" s="1"/>
-      <c r="G974" s="1"/>
-      <c r="H974" s="1"/>
-      <c r="I974" s="1"/>
-      <c r="J974" s="1"/>
-      <c r="K974" s="1"/>
-      <c r="L974" s="1"/>
-      <c r="M974" s="1"/>
-      <c r="N974" s="1"/>
-      <c r="O974" s="1"/>
-      <c r="P974" s="1"/>
-      <c r="Q974" s="1"/>
-      <c r="R974" s="1"/>
-      <c r="S974" s="1"/>
-      <c r="T974" s="1"/>
-      <c r="U974" s="1"/>
-      <c r="V974" s="1"/>
-      <c r="W974" s="1"/>
-      <c r="X974" s="1"/>
-    </row>
-    <row r="975" spans="1:24">
-      <c r="A975" s="1"/>
-      <c r="B975" s="1"/>
-      <c r="C975" s="1"/>
-      <c r="D975" s="1"/>
-      <c r="E975" s="1"/>
-      <c r="F975" s="1"/>
-      <c r="G975" s="1"/>
-      <c r="H975" s="1"/>
-      <c r="I975" s="1"/>
-      <c r="J975" s="1"/>
-      <c r="K975" s="1"/>
-      <c r="L975" s="1"/>
-      <c r="M975" s="1"/>
-      <c r="N975" s="1"/>
-      <c r="O975" s="1"/>
-      <c r="P975" s="1"/>
-      <c r="Q975" s="1"/>
-      <c r="R975" s="1"/>
-      <c r="S975" s="1"/>
-      <c r="T975" s="1"/>
-      <c r="U975" s="1"/>
-      <c r="V975" s="1"/>
-      <c r="W975" s="1"/>
-      <c r="X975" s="1"/>
-    </row>
-    <row r="976" spans="1:24">
-      <c r="A976" s="1"/>
-      <c r="B976" s="1"/>
-      <c r="C976" s="1"/>
-      <c r="D976" s="1"/>
-      <c r="E976" s="1"/>
-      <c r="F976" s="1"/>
-      <c r="G976" s="1"/>
-      <c r="H976" s="1"/>
-      <c r="I976" s="1"/>
-      <c r="J976" s="1"/>
-      <c r="K976" s="1"/>
-      <c r="L976" s="1"/>
-      <c r="M976" s="1"/>
-      <c r="N976" s="1"/>
-      <c r="O976" s="1"/>
-      <c r="P976" s="1"/>
-      <c r="Q976" s="1"/>
-      <c r="R976" s="1"/>
-      <c r="S976" s="1"/>
-      <c r="T976" s="1"/>
-      <c r="U976" s="1"/>
-      <c r="V976" s="1"/>
-      <c r="W976" s="1"/>
-      <c r="X976" s="1"/>
-    </row>
-    <row r="977" spans="1:24">
-      <c r="A977" s="1"/>
-      <c r="B977" s="1"/>
-      <c r="C977" s="1"/>
-      <c r="D977" s="1"/>
-      <c r="E977" s="1"/>
-      <c r="F977" s="1"/>
-      <c r="G977" s="1"/>
-      <c r="H977" s="1"/>
-      <c r="I977" s="1"/>
-      <c r="J977" s="1"/>
-      <c r="K977" s="1"/>
-      <c r="L977" s="1"/>
-      <c r="M977" s="1"/>
-      <c r="N977" s="1"/>
-      <c r="O977" s="1"/>
-      <c r="P977" s="1"/>
-      <c r="Q977" s="1"/>
-      <c r="R977" s="1"/>
-      <c r="S977" s="1"/>
-      <c r="T977" s="1"/>
-      <c r="U977" s="1"/>
-      <c r="V977" s="1"/>
-      <c r="W977" s="1"/>
-      <c r="X977" s="1"/>
-    </row>
-    <row r="978" spans="1:24">
-      <c r="A978" s="1"/>
-      <c r="B978" s="1"/>
-      <c r="C978" s="1"/>
-      <c r="D978" s="1"/>
-      <c r="E978" s="1"/>
-      <c r="F978" s="1"/>
-      <c r="G978" s="1"/>
-      <c r="H978" s="1"/>
-      <c r="I978" s="1"/>
-      <c r="J978" s="1"/>
-      <c r="K978" s="1"/>
-      <c r="L978" s="1"/>
-      <c r="M978" s="1"/>
-      <c r="N978" s="1"/>
-      <c r="O978" s="1"/>
-      <c r="P978" s="1"/>
-      <c r="Q978" s="1"/>
-      <c r="R978" s="1"/>
-      <c r="S978" s="1"/>
-      <c r="T978" s="1"/>
-      <c r="U978" s="1"/>
-      <c r="V978" s="1"/>
-      <c r="W978" s="1"/>
-      <c r="X978" s="1"/>
-    </row>
-    <row r="979" spans="1:24">
-      <c r="A979" s="1"/>
-      <c r="B979" s="1"/>
-      <c r="C979" s="1"/>
-      <c r="D979" s="1"/>
-      <c r="E979" s="1"/>
-      <c r="F979" s="1"/>
-      <c r="G979" s="1"/>
-      <c r="H979" s="1"/>
-      <c r="I979" s="1"/>
-      <c r="J979" s="1"/>
-      <c r="K979" s="1"/>
-      <c r="L979" s="1"/>
-      <c r="M979" s="1"/>
-      <c r="N979" s="1"/>
-      <c r="O979" s="1"/>
-      <c r="P979" s="1"/>
-      <c r="Q979" s="1"/>
-      <c r="R979" s="1"/>
-      <c r="S979" s="1"/>
-      <c r="T979" s="1"/>
-      <c r="U979" s="1"/>
-      <c r="V979" s="1"/>
-      <c r="W979" s="1"/>
-      <c r="X979" s="1"/>
-    </row>
-    <row r="980" spans="1:24">
-      <c r="A980" s="1"/>
-      <c r="B980" s="1"/>
-      <c r="C980" s="1"/>
-      <c r="D980" s="1"/>
-      <c r="E980" s="1"/>
-      <c r="F980" s="1"/>
-      <c r="G980" s="1"/>
-      <c r="H980" s="1"/>
-      <c r="I980" s="1"/>
-      <c r="J980" s="1"/>
-      <c r="K980" s="1"/>
-      <c r="L980" s="1"/>
-      <c r="M980" s="1"/>
-      <c r="N980" s="1"/>
-      <c r="O980" s="1"/>
-      <c r="P980" s="1"/>
-      <c r="Q980" s="1"/>
-      <c r="R980" s="1"/>
-      <c r="S980" s="1"/>
-      <c r="T980" s="1"/>
-      <c r="U980" s="1"/>
-      <c r="V980" s="1"/>
-      <c r="W980" s="1"/>
-      <c r="X980" s="1"/>
-    </row>
-    <row r="981" spans="1:24">
-      <c r="A981" s="1"/>
-      <c r="B981" s="1"/>
-      <c r="C981" s="1"/>
-      <c r="D981" s="1"/>
-      <c r="E981" s="1"/>
-      <c r="F981" s="1"/>
-      <c r="G981" s="1"/>
-      <c r="H981" s="1"/>
-      <c r="I981" s="1"/>
-      <c r="J981" s="1"/>
-      <c r="K981" s="1"/>
-      <c r="L981" s="1"/>
-      <c r="M981" s="1"/>
-      <c r="N981" s="1"/>
-      <c r="O981" s="1"/>
-      <c r="P981" s="1"/>
-      <c r="Q981" s="1"/>
-      <c r="R981" s="1"/>
-      <c r="S981" s="1"/>
-      <c r="T981" s="1"/>
-      <c r="U981" s="1"/>
-      <c r="V981" s="1"/>
-      <c r="W981" s="1"/>
-      <c r="X981" s="1"/>
-    </row>
-    <row r="982" spans="1:24">
-      <c r="A982" s="1"/>
-      <c r="B982" s="1"/>
-      <c r="C982" s="1"/>
-      <c r="D982" s="1"/>
-      <c r="E982" s="1"/>
-      <c r="F982" s="1"/>
-      <c r="G982" s="1"/>
-      <c r="H982" s="1"/>
-      <c r="I982" s="1"/>
-      <c r="J982" s="1"/>
-      <c r="K982" s="1"/>
-      <c r="L982" s="1"/>
-      <c r="M982" s="1"/>
-      <c r="N982" s="1"/>
-      <c r="O982" s="1"/>
-      <c r="P982" s="1"/>
-      <c r="Q982" s="1"/>
-      <c r="R982" s="1"/>
-      <c r="S982" s="1"/>
-      <c r="T982" s="1"/>
-      <c r="U982" s="1"/>
-      <c r="V982" s="1"/>
-      <c r="W982" s="1"/>
-      <c r="X982" s="1"/>
-    </row>
-    <row r="983" spans="1:24">
-      <c r="A983" s="1"/>
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-      <c r="D983" s="1"/>
-      <c r="E983" s="1"/>
-      <c r="F983" s="1"/>
-      <c r="G983" s="1"/>
-      <c r="H983" s="1"/>
-      <c r="I983" s="1"/>
-      <c r="J983" s="1"/>
-      <c r="K983" s="1"/>
-      <c r="L983" s="1"/>
-      <c r="M983" s="1"/>
-      <c r="N983" s="1"/>
-      <c r="O983" s="1"/>
-      <c r="P983" s="1"/>
-      <c r="Q983" s="1"/>
-      <c r="R983" s="1"/>
-      <c r="S983" s="1"/>
-      <c r="T983" s="1"/>
-      <c r="U983" s="1"/>
-      <c r="V983" s="1"/>
-      <c r="W983" s="1"/>
-      <c r="X983" s="1"/>
-    </row>
-    <row r="984" spans="1:24">
-      <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="1"/>
-      <c r="E984" s="1"/>
-      <c r="F984" s="1"/>
-      <c r="G984" s="1"/>
-      <c r="H984" s="1"/>
-      <c r="I984" s="1"/>
-      <c r="J984" s="1"/>
-      <c r="K984" s="1"/>
-      <c r="L984" s="1"/>
-      <c r="M984" s="1"/>
-      <c r="N984" s="1"/>
-      <c r="O984" s="1"/>
-      <c r="P984" s="1"/>
-      <c r="Q984" s="1"/>
-      <c r="R984" s="1"/>
-      <c r="S984" s="1"/>
-      <c r="T984" s="1"/>
-      <c r="U984" s="1"/>
-      <c r="V984" s="1"/>
-      <c r="W984" s="1"/>
-      <c r="X984" s="1"/>
-    </row>
-    <row r="985" spans="1:24">
-      <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="1"/>
-      <c r="E985" s="1"/>
-      <c r="F985" s="1"/>
-      <c r="G985" s="1"/>
-      <c r="H985" s="1"/>
-      <c r="I985" s="1"/>
-      <c r="J985" s="1"/>
-      <c r="K985" s="1"/>
-      <c r="L985" s="1"/>
-      <c r="M985" s="1"/>
-      <c r="N985" s="1"/>
-      <c r="O985" s="1"/>
-      <c r="P985" s="1"/>
-      <c r="Q985" s="1"/>
-      <c r="R985" s="1"/>
-      <c r="S985" s="1"/>
-      <c r="T985" s="1"/>
-      <c r="U985" s="1"/>
-      <c r="V985" s="1"/>
-      <c r="W985" s="1"/>
-      <c r="X985" s="1"/>
-    </row>
-    <row r="986" spans="1:24">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="1"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="1"/>
-      <c r="G986" s="1"/>
-      <c r="H986" s="1"/>
-      <c r="I986" s="1"/>
-      <c r="J986" s="1"/>
-      <c r="K986" s="1"/>
-      <c r="L986" s="1"/>
-      <c r="M986" s="1"/>
-      <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
-      <c r="P986" s="1"/>
-      <c r="Q986" s="1"/>
-      <c r="R986" s="1"/>
-      <c r="S986" s="1"/>
-      <c r="T986" s="1"/>
-      <c r="U986" s="1"/>
-      <c r="V986" s="1"/>
-      <c r="W986" s="1"/>
-      <c r="X986" s="1"/>
-    </row>
-    <row r="987" spans="1:24">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="1"/>
-      <c r="E987" s="1"/>
-      <c r="F987" s="1"/>
-      <c r="G987" s="1"/>
-      <c r="H987" s="1"/>
-      <c r="I987" s="1"/>
-      <c r="J987" s="1"/>
-      <c r="K987" s="1"/>
-      <c r="L987" s="1"/>
-      <c r="M987" s="1"/>
-      <c r="N987" s="1"/>
-      <c r="O987" s="1"/>
-      <c r="P987" s="1"/>
-      <c r="Q987" s="1"/>
-      <c r="R987" s="1"/>
-      <c r="S987" s="1"/>
-      <c r="T987" s="1"/>
-      <c r="U987" s="1"/>
-      <c r="V987" s="1"/>
-      <c r="W987" s="1"/>
-      <c r="X987" s="1"/>
-    </row>
-    <row r="988" spans="1:24">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="1"/>
-      <c r="D988" s="1"/>
-      <c r="E988" s="1"/>
-      <c r="F988" s="1"/>
-      <c r="G988" s="1"/>
-      <c r="H988" s="1"/>
-      <c r="I988" s="1"/>
-      <c r="J988" s="1"/>
-      <c r="K988" s="1"/>
-      <c r="L988" s="1"/>
-      <c r="M988" s="1"/>
-      <c r="N988" s="1"/>
-      <c r="O988" s="1"/>
-      <c r="P988" s="1"/>
-      <c r="Q988" s="1"/>
-      <c r="R988" s="1"/>
-      <c r="S988" s="1"/>
-      <c r="T988" s="1"/>
-      <c r="U988" s="1"/>
-      <c r="V988" s="1"/>
-      <c r="W988" s="1"/>
-      <c r="X988" s="1"/>
-    </row>
-    <row r="989" spans="1:24">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1"/>
-      <c r="E989" s="1"/>
-      <c r="F989" s="1"/>
-      <c r="G989" s="1"/>
-      <c r="H989" s="1"/>
-      <c r="I989" s="1"/>
-      <c r="J989" s="1"/>
-      <c r="K989" s="1"/>
-      <c r="L989" s="1"/>
-      <c r="M989" s="1"/>
-      <c r="N989" s="1"/>
-      <c r="O989" s="1"/>
-      <c r="P989" s="1"/>
-      <c r="Q989" s="1"/>
-      <c r="R989" s="1"/>
-      <c r="S989" s="1"/>
-      <c r="T989" s="1"/>
-      <c r="U989" s="1"/>
-      <c r="V989" s="1"/>
-      <c r="W989" s="1"/>
-      <c r="X989" s="1"/>
-    </row>
-    <row r="990" spans="1:24">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
-      <c r="G990" s="1"/>
-      <c r="H990" s="1"/>
-      <c r="I990" s="1"/>
-      <c r="J990" s="1"/>
-      <c r="K990" s="1"/>
-      <c r="L990" s="1"/>
-      <c r="M990" s="1"/>
-      <c r="N990" s="1"/>
-      <c r="O990" s="1"/>
-      <c r="P990" s="1"/>
-      <c r="Q990" s="1"/>
-      <c r="R990" s="1"/>
-      <c r="S990" s="1"/>
-      <c r="T990" s="1"/>
-      <c r="U990" s="1"/>
-      <c r="V990" s="1"/>
-      <c r="W990" s="1"/>
-      <c r="X990" s="1"/>
-    </row>
-    <row r="991" spans="1:24">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-      <c r="E991" s="1"/>
-      <c r="F991" s="1"/>
-      <c r="G991" s="1"/>
-      <c r="H991" s="1"/>
-      <c r="I991" s="1"/>
-      <c r="J991" s="1"/>
-      <c r="K991" s="1"/>
-      <c r="L991" s="1"/>
-      <c r="M991" s="1"/>
-      <c r="N991" s="1"/>
-      <c r="O991" s="1"/>
-      <c r="P991" s="1"/>
-      <c r="Q991" s="1"/>
-      <c r="R991" s="1"/>
-      <c r="S991" s="1"/>
-      <c r="T991" s="1"/>
-      <c r="U991" s="1"/>
-      <c r="V991" s="1"/>
-      <c r="W991" s="1"/>
-      <c r="X991" s="1"/>
-    </row>
-    <row r="992" spans="1:24">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-      <c r="E992" s="1"/>
-      <c r="F992" s="1"/>
-      <c r="G992" s="1"/>
-      <c r="H992" s="1"/>
-      <c r="I992" s="1"/>
-      <c r="J992" s="1"/>
-      <c r="K992" s="1"/>
-      <c r="L992" s="1"/>
-      <c r="M992" s="1"/>
-      <c r="N992" s="1"/>
-      <c r="O992" s="1"/>
-      <c r="P992" s="1"/>
-      <c r="Q992" s="1"/>
-      <c r="R992" s="1"/>
-      <c r="S992" s="1"/>
-      <c r="T992" s="1"/>
-      <c r="U992" s="1"/>
-      <c r="V992" s="1"/>
-      <c r="W992" s="1"/>
-      <c r="X992" s="1"/>
-    </row>
-    <row r="993" spans="1:24">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1"/>
-      <c r="F993" s="1"/>
-      <c r="G993" s="1"/>
-      <c r="H993" s="1"/>
-      <c r="I993" s="1"/>
-      <c r="J993" s="1"/>
-      <c r="K993" s="1"/>
-      <c r="L993" s="1"/>
-      <c r="M993" s="1"/>
-      <c r="N993" s="1"/>
-      <c r="O993" s="1"/>
-      <c r="P993" s="1"/>
-      <c r="Q993" s="1"/>
-      <c r="R993" s="1"/>
-      <c r="S993" s="1"/>
-      <c r="T993" s="1"/>
-      <c r="U993" s="1"/>
-      <c r="V993" s="1"/>
-      <c r="W993" s="1"/>
-      <c r="X993" s="1"/>
-    </row>
-    <row r="994" spans="1:24">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
-      <c r="P994" s="1"/>
-      <c r="Q994" s="1"/>
-      <c r="R994" s="1"/>
-      <c r="S994" s="1"/>
-      <c r="T994" s="1"/>
-      <c r="U994" s="1"/>
-      <c r="V994" s="1"/>
-      <c r="W994" s="1"/>
-      <c r="X994" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -27436,10 +25843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27499,43 +25906,43 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="4">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B2" s="6">
-        <v>12.2</v>
+        <v>21.8</v>
       </c>
       <c r="C2" s="6">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D2" s="6">
         <v>0.2</v>
       </c>
       <c r="E2" s="6">
-        <f>SUM(B2:D2)</f>
-        <v>14.2</v>
+        <f t="shared" ref="E2:E28" si="0">SUM(B2:D2)</f>
+        <v>24.3</v>
       </c>
       <c r="F2" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="6">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="I2" s="6">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="J2" s="6">
-        <f>SUM(F2:I2)</f>
-        <v>5</v>
+        <f t="shared" ref="J2:J28" si="1">SUM(F2:I2)</f>
+        <v>10.7</v>
       </c>
       <c r="K2" s="7">
         <v>0</v>
       </c>
       <c r="L2" s="7">
-        <f>SUM(B2:D2)+SUM(F2:I2)+K2</f>
-        <v>19.2</v>
+        <f t="shared" ref="L2:L27" si="2">SUM(B2:D2)+SUM(F2:I2)+K2</f>
+        <v>35</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>25</v>
@@ -27555,43 +25962,43 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4">
-        <v>1971</v>
+        <v>1991</v>
       </c>
       <c r="B3" s="6">
-        <v>12.9</v>
+        <v>21.6</v>
       </c>
       <c r="C3" s="6">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3" s="6">
         <v>0.2</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E47" si="0">SUM(B3:D3)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="F3" s="6">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="6">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H3" s="6">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="I3" s="6">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J47" si="1">SUM(F3:I3)</f>
-        <v>5.2</v>
+        <f t="shared" si="1"/>
+        <v>10.6</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L48" si="2">SUM(B3:D3)+SUM(F3:I3)+K3</f>
-        <v>20.2</v>
+        <f t="shared" si="2"/>
+        <v>34.6</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>25</v>
@@ -27611,43 +26018,43 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4">
-        <v>1972</v>
+        <v>1992</v>
       </c>
       <c r="B4" s="6">
-        <v>13.8</v>
+        <v>21.8</v>
       </c>
       <c r="C4" s="6">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D4" s="6">
         <v>0.2</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="0"/>
-        <v>15.9</v>
+        <v>24.1</v>
       </c>
       <c r="F4" s="6">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="G4" s="6">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H4" s="6">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
       <c r="I4" s="6">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>11.2</v>
       </c>
       <c r="K4" s="7">
         <v>0</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="2"/>
-        <v>21.1</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>25</v>
@@ -27667,10 +26074,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4">
-        <v>1973</v>
+        <v>1993</v>
       </c>
       <c r="B5" s="6">
-        <v>14.7</v>
+        <v>21.6</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -27680,30 +26087,30 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>16.899999999999999</v>
+        <v>23.8</v>
       </c>
       <c r="F5" s="6">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="G5" s="6">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="6">
-        <v>4.0999999999999996</v>
+        <v>6.3</v>
       </c>
       <c r="I5" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>25</v>
@@ -27723,43 +26130,43 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4">
-        <v>1974</v>
+        <v>1994</v>
       </c>
       <c r="B6" s="6">
-        <v>14.3</v>
+        <v>20.9</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="D6" s="6">
         <v>0.2</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>22.9</v>
       </c>
       <c r="F6" s="6">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="G6" s="6">
-        <v>0.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H6" s="6">
-        <v>4.0999999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="I6" s="6">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>12.899999999999999</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="2"/>
-        <v>22.1</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>25</v>
@@ -27779,43 +26186,43 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4">
-        <v>1975</v>
+        <v>1995</v>
       </c>
       <c r="B7" s="6">
-        <v>14</v>
+        <v>20.2</v>
       </c>
       <c r="C7" s="6">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D7" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>16.2</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="G7" s="6">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="6">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="I7" s="6">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>5.3000000000000007</v>
+        <v>13.5</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="2"/>
-        <v>21.5</v>
+        <v>35.5</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>25</v>
@@ -27835,43 +26242,43 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4">
-        <v>1976</v>
+        <v>1996</v>
       </c>
       <c r="B8" s="6">
-        <v>14.6</v>
+        <v>20.7</v>
       </c>
       <c r="C8" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>16.900000000000002</v>
+        <v>22.4</v>
       </c>
       <c r="F8" s="6">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="G8" s="6">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H8" s="6">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="I8" s="6">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
+        <v>14.4</v>
       </c>
       <c r="K8" s="7">
         <v>0</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="2"/>
-        <v>22.500000000000004</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>25</v>
@@ -27891,43 +26298,43 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4">
-        <v>1977</v>
+        <v>1997</v>
       </c>
       <c r="B9" s="6">
-        <v>15</v>
+        <v>20.7</v>
       </c>
       <c r="C9" s="6">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="D9" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>17.3</v>
+        <v>22.299999999999997</v>
       </c>
       <c r="F9" s="6">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="G9" s="6">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H9" s="6">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="I9" s="6">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>5.8000000000000007</v>
+        <v>15.100000000000001</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="2"/>
-        <v>23.1</v>
+        <v>37.4</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>25</v>
@@ -27947,2164 +26354,1113 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4">
-        <v>1978</v>
+        <v>1998</v>
       </c>
       <c r="B10" s="6">
-        <v>16</v>
+        <v>20.3</v>
       </c>
       <c r="C10" s="6">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="D10" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>18.400000000000002</v>
+        <v>21.8</v>
       </c>
       <c r="F10" s="6">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="G10" s="6">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H10" s="6">
-        <v>4.4000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="I10" s="6">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15.2</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="2"/>
-        <v>24.400000000000002</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4">
-        <v>1979</v>
+        <v>1999</v>
       </c>
       <c r="B11" s="6">
-        <v>16.3</v>
+        <v>20.5</v>
       </c>
       <c r="C11" s="6">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D11" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>18.700000000000003</v>
+        <v>21.8</v>
       </c>
       <c r="F11" s="6">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="6">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H11" s="6">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>6.1</v>
+        <v>15.6</v>
       </c>
       <c r="K11" s="7">
         <v>0</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="2"/>
-        <v>24.800000000000004</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>37.4</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N11" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>9.9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B12" s="6">
-        <v>16.7</v>
+        <v>20.2</v>
       </c>
       <c r="C12" s="6">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="D12" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>19.2</v>
+        <v>21.4</v>
       </c>
       <c r="F12" s="6">
-        <v>0.2</v>
+        <v>4.2</v>
       </c>
       <c r="G12" s="6">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H12" s="6">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="I12" s="6">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>5.9</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="2"/>
-        <v>25.1</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>37.1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N12" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>10.8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4">
-        <v>1981</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="6">
-        <v>16.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C13" s="6">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D13" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>18.7</v>
+        <v>20.9</v>
       </c>
       <c r="F13" s="6">
-        <v>0.2</v>
+        <v>4.5</v>
       </c>
       <c r="G13" s="6">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H13" s="6">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="I13" s="6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="2"/>
-        <v>24.299999999999997</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N13" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>10.6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4">
-        <v>1982</v>
+        <v>2002</v>
       </c>
       <c r="B14" s="6">
-        <v>16.899999999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C14" s="6">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="D14" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>19.299999999999997</v>
+        <v>20.799999999999997</v>
       </c>
       <c r="F14" s="6">
-        <v>0.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G14" s="6">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="H14" s="6">
-        <v>4.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="I14" s="6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="1"/>
-        <v>5.6999999999999993</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K14" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="2"/>
-        <v>24.999999999999996</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4">
-        <v>1983</v>
+        <v>2003</v>
       </c>
       <c r="B15" s="6">
-        <v>17.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C15" s="6">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>19.599999999999998</v>
+        <v>19.900000000000002</v>
       </c>
       <c r="F15" s="6">
-        <v>0.2</v>
+        <v>5.5</v>
       </c>
       <c r="G15" s="6">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H15" s="6">
-        <v>4.4000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="I15" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="1"/>
-        <v>6.1</v>
+        <v>17.8</v>
       </c>
       <c r="K15" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="2"/>
-        <v>25.699999999999996</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>10.8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4">
-        <v>1984</v>
+        <v>2004</v>
       </c>
       <c r="B16" s="6">
-        <v>17.8</v>
+        <v>18.7</v>
       </c>
       <c r="C16" s="6">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="D16" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>20.2</v>
+        <v>19.5</v>
       </c>
       <c r="F16" s="6">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="G16" s="6">
-        <v>0.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H16" s="6">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="I16" s="6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="1"/>
-        <v>6.7</v>
+        <v>18.5</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" si="2"/>
-        <v>26.9</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>38.1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>11.6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4">
-        <v>1985</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="6">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="C17" s="6">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>20.400000000000002</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F17" s="6">
-        <v>0.2</v>
+        <v>6.6</v>
       </c>
       <c r="G17" s="6">
-        <v>0.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H17" s="6">
-        <v>5.2</v>
+        <v>6.7</v>
       </c>
       <c r="I17" s="6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="1"/>
-        <v>7.1000000000000005</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>38.4</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O17" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>12.5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="B18" s="6">
-        <v>19</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C18" s="6">
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>21.5</v>
+        <v>18.099999999999998</v>
       </c>
       <c r="F18" s="6">
-        <v>0.3</v>
+        <v>7.3</v>
       </c>
       <c r="G18" s="6">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H18" s="6">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="I18" s="6">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="1"/>
-        <v>7.8999999999999995</v>
+        <v>20.2</v>
       </c>
       <c r="K18" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="2"/>
-        <v>29.4</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>25</v>
+        <v>38.4</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>12.6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4">
-        <v>1987</v>
+        <v>2007</v>
       </c>
       <c r="B19" s="6">
-        <v>19.600000000000001</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6">
-        <v>2.2999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>22.200000000000003</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="F19" s="6">
-        <v>0.4</v>
+        <v>7.8</v>
       </c>
       <c r="G19" s="6">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="6">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="I19" s="6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="K19" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="7">
         <f t="shared" si="2"/>
-        <v>30.700000000000003</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>38.699999999999996</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O19" s="6">
+        <v>2</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>12.6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4">
-        <v>1988</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="6">
-        <v>20.6</v>
+        <v>15.9</v>
       </c>
       <c r="C20" s="6">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="D20" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>23.3</v>
+        <v>16.5</v>
       </c>
       <c r="F20" s="6">
-        <v>0.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G20" s="6">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H20" s="6">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I20" s="6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
-        <v>9.3000000000000007</v>
+        <v>20.599999999999998</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="2"/>
-        <v>32.6</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>25</v>
+        <v>37.199999999999996</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O20" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>12.1</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4">
-        <v>1989</v>
+        <v>2009</v>
       </c>
       <c r="B21" s="6">
-        <v>21.1</v>
+        <v>15.1</v>
       </c>
       <c r="C21" s="6">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="6">
         <v>0.2</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>23.900000000000002</v>
+        <v>15.7</v>
       </c>
       <c r="F21" s="6">
-        <v>0.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G21" s="6">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H21" s="6">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="I21" s="6">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="1"/>
-        <v>10.099999999999998</v>
+        <v>20.2</v>
       </c>
       <c r="K21" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L21" s="7">
         <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O21" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>11.5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B22" s="6">
-        <v>21.8</v>
+        <v>14.1</v>
       </c>
       <c r="C22" s="6">
-        <v>2.2999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="D22" s="6">
         <v>0.2</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>24.3</v>
+        <v>14.6</v>
       </c>
       <c r="F22" s="6">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="G22" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="H22" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="I22" s="6">
         <v>1.4</v>
-      </c>
-      <c r="H22" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1.7</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="1"/>
-        <v>10.7</v>
+        <v>20.699999999999996</v>
       </c>
       <c r="K22" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L22" s="7">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>25</v>
+        <v>35.4</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O22" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>11.1</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
-        <v>1991</v>
+        <v>2011</v>
       </c>
       <c r="B23" s="6">
-        <v>21.6</v>
+        <v>13.4</v>
       </c>
       <c r="C23" s="6">
-        <v>2.2000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="D23" s="6">
         <v>0.2</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>13.9</v>
       </c>
       <c r="F23" s="6">
-        <v>1.1000000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G23" s="6">
-        <v>1.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H23" s="6">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I23" s="6">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="1"/>
-        <v>10.6</v>
+        <v>21.1</v>
       </c>
       <c r="K23" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="7">
         <f t="shared" si="2"/>
-        <v>34.6</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>35.1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O23" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>11.6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4">
-        <v>1992</v>
+        <v>2012</v>
       </c>
       <c r="B24" s="6">
-        <v>21.8</v>
+        <v>12.8</v>
       </c>
       <c r="C24" s="6">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="D24" s="6">
         <v>0.2</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>24.1</v>
+        <v>13.3</v>
       </c>
       <c r="F24" s="6">
-        <v>1.5</v>
+        <v>9.6</v>
       </c>
       <c r="G24" s="6">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H24" s="6">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I24" s="6">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="K24" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L24" s="7">
         <f t="shared" si="2"/>
-        <v>35.299999999999997</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>11.2</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="B25" s="6">
-        <v>21.6</v>
+        <v>12.2</v>
       </c>
       <c r="C25" s="6">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="D25" s="6">
         <v>0.2</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>23.8</v>
+        <v>12.7</v>
       </c>
       <c r="F25" s="6">
-        <v>1.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G25" s="6">
-        <v>2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H25" s="6">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="I25" s="6">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="1"/>
-        <v>11.899999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="K25" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="2"/>
-        <v>35.700000000000003</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>25</v>
+        <v>34.699999999999996</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N25" s="6">
+        <v>2</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>11.2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="4">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="B26" s="6">
-        <v>20.9</v>
+        <v>11.9</v>
       </c>
       <c r="C26" s="6">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="D26" s="6">
         <v>0.2</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>22.9</v>
+        <v>12.299999999999999</v>
       </c>
       <c r="F26" s="6">
-        <v>2.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G26" s="6">
-        <v>2.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="H26" s="6">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I26" s="6">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="1"/>
-        <v>12.899999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="K26" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="2"/>
-        <v>35.799999999999997</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>25</v>
+        <v>35.1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N26" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>11.2</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="B27" s="6">
-        <v>20.2</v>
+        <v>11.7</v>
       </c>
       <c r="C27" s="6">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="D27" s="6">
         <v>0.2</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>12.099999999999998</v>
       </c>
       <c r="F27" s="6">
-        <v>2.8</v>
+        <v>10.7</v>
       </c>
       <c r="G27" s="6">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H27" s="6">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I27" s="6">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>23.599999999999998</v>
       </c>
       <c r="K27" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L27" s="7">
         <f t="shared" si="2"/>
-        <v>35.5</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N27" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>11.3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="4">
-        <v>1996</v>
-      </c>
-      <c r="B28" s="6">
-        <v>20.7</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D28" s="6">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D28" s="5">
         <v>0.2</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
-        <v>22.4</v>
-      </c>
-      <c r="F28" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="G28" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="H28" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1.8</v>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="F28" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="1"/>
-        <v>14.4</v>
+        <v>24.6</v>
       </c>
       <c r="K28" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="2"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>25</v>
+        <f>SUM(B28:D28)+SUM(F28:I28)+K28</f>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>11.4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4">
-        <v>1997</v>
-      </c>
-      <c r="B29" s="6">
-        <v>20.7</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" si="0"/>
-        <v>22.299999999999997</v>
-      </c>
-      <c r="F29" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="G29" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="H29" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="1"/>
-        <v>15.100000000000001</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0</v>
+        <v>2017</v>
+      </c>
+      <c r="E29">
+        <v>11.7</v>
+      </c>
+      <c r="J29" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.1</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="2"/>
-        <v>37.4</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="4">
-        <v>1998</v>
-      </c>
-      <c r="B30" s="6">
-        <v>20.3</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="0"/>
-        <v>21.8</v>
-      </c>
-      <c r="F30" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="G30" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="H30" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="I30" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="1"/>
-        <v>15.2</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="N30" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="O30" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="4">
-        <v>1999</v>
-      </c>
-      <c r="B31" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="0"/>
-        <v>21.8</v>
-      </c>
-      <c r="F31" s="6">
-        <v>4</v>
-      </c>
-      <c r="G31" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="H31" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="1"/>
-        <v>15.6</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <f t="shared" si="2"/>
-        <v>37.4</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N31" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="O31" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>9.9</v>
+        <f>E29+J29+K29</f>
+        <v>36.699999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B32" s="6">
-        <v>20.2</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="0"/>
-        <v>21.4</v>
-      </c>
-      <c r="F32" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="G32" s="6">
-        <v>3.6</v>
-      </c>
-      <c r="H32" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="I32" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" si="1"/>
-        <v>15.700000000000001</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" si="2"/>
-        <v>37.1</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N32" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="O32" s="6">
-        <v>1</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="4">
-        <v>2001</v>
-      </c>
-      <c r="B33" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="0"/>
-        <v>20.9</v>
-      </c>
-      <c r="F33" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="G33" s="6">
-        <v>3.8</v>
-      </c>
-      <c r="H33" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="I33" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" si="1"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N33" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="4">
-        <v>2002</v>
-      </c>
-      <c r="B34" s="6">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" si="0"/>
-        <v>20.799999999999997</v>
-      </c>
-      <c r="F34" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G34" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="H34" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" si="1"/>
-        <v>16.899999999999999</v>
-      </c>
-      <c r="K34" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L34" s="7">
-        <f t="shared" si="2"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N34" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="4">
-        <v>2003</v>
-      </c>
-      <c r="B35" s="6">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="0"/>
-        <v>19.900000000000002</v>
-      </c>
-      <c r="F35" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="G35" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="H35" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="1"/>
-        <v>17.8</v>
-      </c>
-      <c r="K35" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="2"/>
-        <v>37.800000000000004</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N35" s="6">
-        <v>2</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="4">
-        <v>2004</v>
-      </c>
-      <c r="B36" s="6">
-        <v>18.7</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="F36" s="6">
-        <v>6</v>
-      </c>
-      <c r="G36" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H36" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="I36" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" si="1"/>
-        <v>18.5</v>
-      </c>
-      <c r="K36" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" si="2"/>
-        <v>38.1</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N36" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="O36" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="4">
-        <v>2005</v>
-      </c>
-      <c r="B37" s="6">
-        <v>18.2</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="6">
-        <f t="shared" si="0"/>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F37" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="G37" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H37" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="I37" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="K37" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="2"/>
-        <v>38.4</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N37" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="O37" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="4">
-        <v>2006</v>
-      </c>
-      <c r="B38" s="6">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" si="0"/>
-        <v>18.099999999999998</v>
-      </c>
-      <c r="F38" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="G38" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="H38" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="I38" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" si="1"/>
-        <v>20.2</v>
-      </c>
-      <c r="K38" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" si="2"/>
-        <v>38.4</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N38" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O38" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="4">
-        <v>2007</v>
-      </c>
-      <c r="B39" s="6">
-        <v>17</v>
-      </c>
-      <c r="C39" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" si="0"/>
-        <v>17.599999999999998</v>
-      </c>
-      <c r="F39" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="G39" s="6">
-        <v>5</v>
-      </c>
-      <c r="H39" s="6">
-        <v>6.7</v>
-      </c>
-      <c r="I39" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="J39" s="6">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L39" s="7">
-        <f t="shared" si="2"/>
-        <v>38.699999999999996</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N39" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="O39" s="6">
-        <v>2</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="4">
-        <v>2008</v>
-      </c>
-      <c r="B40" s="6">
-        <v>15.9</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-      <c r="F40" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G40" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="H40" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="I40" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="1"/>
-        <v>20.599999999999998</v>
-      </c>
-      <c r="K40" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L40" s="7">
-        <f t="shared" si="2"/>
-        <v>37.199999999999996</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N40" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="O40" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="4">
-        <v>2009</v>
-      </c>
-      <c r="B41" s="6">
-        <v>15.1</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E41" s="6">
-        <f t="shared" si="0"/>
-        <v>15.7</v>
-      </c>
-      <c r="F41" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G41" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="H41" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="I41" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="1"/>
-        <v>20.2</v>
-      </c>
-      <c r="K41" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L41" s="7">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N41" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="O41" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="4">
-        <v>2010</v>
-      </c>
-      <c r="B42" s="6">
-        <v>14.1</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E42" s="6">
-        <f t="shared" si="0"/>
-        <v>14.6</v>
-      </c>
-      <c r="F42" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="G42" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="H42" s="6">
-        <v>5.9</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="1"/>
-        <v>20.699999999999996</v>
-      </c>
-      <c r="K42" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L42" s="7">
-        <f t="shared" si="2"/>
-        <v>35.4</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N42" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="O42" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="4">
-        <v>2011</v>
-      </c>
-      <c r="B43" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="C43" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E43" s="6">
-        <f t="shared" si="0"/>
-        <v>13.9</v>
-      </c>
-      <c r="F43" s="6">
-        <v>9.1</v>
-      </c>
-      <c r="G43" s="6">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H43" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="1"/>
-        <v>21.1</v>
-      </c>
-      <c r="K43" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L43" s="7">
-        <f t="shared" si="2"/>
-        <v>35.1</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N43" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="O43" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="4">
-        <v>2012</v>
-      </c>
-      <c r="B44" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E44" s="6">
-        <f t="shared" si="0"/>
-        <v>13.3</v>
-      </c>
-      <c r="F44" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="G44" s="6">
-        <v>5</v>
-      </c>
-      <c r="H44" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="I44" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="1"/>
-        <v>21.599999999999998</v>
-      </c>
-      <c r="K44" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L44" s="7">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N44" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="O44" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="4">
-        <v>2013</v>
-      </c>
-      <c r="B45" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E45" s="6">
-        <f t="shared" si="0"/>
-        <v>12.7</v>
-      </c>
-      <c r="F45" s="6">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G45" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H45" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="I45" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" si="1"/>
-        <v>21.9</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L45" s="7">
-        <f t="shared" si="2"/>
-        <v>34.699999999999996</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N45" s="6">
-        <v>2</v>
-      </c>
-      <c r="O45" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="4">
-        <v>2014</v>
-      </c>
-      <c r="B46" s="6">
-        <v>11.9</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="0"/>
-        <v>12.299999999999999</v>
-      </c>
-      <c r="F46" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G46" s="6">
-        <v>5.3</v>
-      </c>
-      <c r="H46" s="6">
-        <v>6</v>
-      </c>
-      <c r="I46" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="1"/>
-        <v>22.7</v>
-      </c>
-      <c r="K46" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L46" s="7">
-        <f t="shared" si="2"/>
-        <v>35.1</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N46" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O46" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="4">
-        <v>2015</v>
-      </c>
-      <c r="B47" s="6">
-        <v>11.7</v>
-      </c>
-      <c r="C47" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E47" s="6">
-        <f t="shared" si="0"/>
-        <v>12.099999999999998</v>
-      </c>
-      <c r="F47" s="6">
-        <v>10.7</v>
-      </c>
-      <c r="G47" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="H47" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="I47" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" si="1"/>
-        <v>23.599999999999998</v>
-      </c>
-      <c r="K47" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L47" s="7">
-        <f t="shared" si="2"/>
-        <v>35.799999999999997</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N47" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O47" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q47" s="6">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N48" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="O48" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q48" s="6">
-        <v>11.4</v>
-      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="4"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="5"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30119,10 +27475,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30206,14 +27562,14 @@
         <v>1.4</v>
       </c>
       <c r="K2">
-        <v>2.2999999999999998</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L2">
         <v>5.5</v>
       </c>
       <c r="M2">
         <f>SUM(H2:L2)</f>
-        <v>119.10000000000001</v>
+        <v>125.10000000000001</v>
       </c>
       <c r="N2">
         <v>15.2</v>
@@ -30254,14 +27610,14 @@
         <v>1.5</v>
       </c>
       <c r="K3">
-        <v>2.2000000000000002</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L3">
         <v>4.5</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M27" si="0">SUM(H3:L3)</f>
-        <v>117.5</v>
+        <f t="shared" ref="M3:M28" si="0">SUM(H3:L3)</f>
+        <v>123.6</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -30302,14 +27658,14 @@
         <v>1.5</v>
       </c>
       <c r="K4">
-        <v>2.2000000000000002</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L4">
         <v>4.3</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>118.8</v>
+        <v>124.89999999999999</v>
       </c>
       <c r="N4">
         <v>16.600000000000001</v>
@@ -30350,14 +27706,14 @@
         <v>1.4</v>
       </c>
       <c r="K5">
-        <v>2.2000000000000002</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L5">
         <v>4.4000000000000004</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>119.90000000000002</v>
+        <v>126.00000000000001</v>
       </c>
       <c r="N5">
         <v>17.8</v>
@@ -30398,14 +27754,14 @@
         <v>1.3</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L6">
         <v>4.2</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>120.30000000000001</v>
+        <v>126.2</v>
       </c>
       <c r="N6">
         <v>18.600000000000001</v>
@@ -30446,14 +27802,14 @@
         <v>1.4</v>
       </c>
       <c r="K7">
-        <v>2.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L7">
         <v>4.0999999999999996</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>119.4</v>
+        <v>125.2</v>
       </c>
       <c r="N7">
         <v>19.8</v>
@@ -30494,14 +27850,14 @@
         <v>1.6</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L8">
         <v>4.0999999999999996</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>123.89999999999998</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="N8">
         <v>21</v>
@@ -30542,14 +27898,14 @@
         <v>1.6</v>
       </c>
       <c r="K9">
-        <v>2.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L9">
         <v>3.9</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>125.19999999999999</v>
+        <v>130.99999999999997</v>
       </c>
       <c r="N9">
         <v>22.3</v>
@@ -30590,14 +27946,14 @@
         <v>1.7</v>
       </c>
       <c r="K10">
-        <v>2.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L10">
         <v>3.5</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>124.3</v>
+        <v>130</v>
       </c>
       <c r="N10">
         <v>24.9</v>
@@ -30638,14 +27994,14 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>2.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>125.5</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="N11">
         <v>27</v>
@@ -30686,14 +28042,14 @@
         <v>2.1</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L12">
         <v>3.3</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>124.49999999999999</v>
+        <v>130.29999999999998</v>
       </c>
       <c r="N12">
         <v>29.8</v>
@@ -30734,14 +28090,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K13">
-        <v>2.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L13">
         <v>3.3</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>124.50000000000001</v>
+        <v>130.4</v>
       </c>
       <c r="N13">
         <v>29.1</v>
@@ -30782,14 +28138,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K14">
-        <v>2.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>127.10000000000001</v>
+        <v>132.9</v>
       </c>
       <c r="N14">
         <v>28.5</v>
@@ -30826,18 +28182,18 @@
       <c r="I15">
         <v>1.8</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>126.69999999999999</v>
+        <v>132.5</v>
       </c>
       <c r="N15">
         <v>29.2</v>
@@ -30874,18 +28230,18 @@
       <c r="I16">
         <v>1.9</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L16">
         <v>3.5</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>127.8</v>
+        <v>133.5</v>
       </c>
       <c r="N16">
         <v>32</v>
@@ -30926,14 +28282,14 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>2.6</v>
+        <v>8.1</v>
       </c>
       <c r="L17">
         <v>3.3</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>128.80000000000001</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="N17">
         <v>34.6</v>
@@ -30974,14 +28330,14 @@
         <v>2.4</v>
       </c>
       <c r="K18">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="L18">
         <v>3.9</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>129.30000000000001</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="N18">
         <v>35.1</v>
@@ -31022,14 +28378,14 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K19">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="L19">
         <v>4.2</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>130.79999999999998</v>
+        <v>135.89999999999998</v>
       </c>
       <c r="N19">
         <v>35</v>
@@ -31070,14 +28426,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K20">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="L20">
         <v>3.7</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>125.30000000000001</v>
+        <v>129.9</v>
       </c>
       <c r="N20">
         <v>34.200000000000003</v>
@@ -31118,14 +28474,14 @@
         <v>1.9</v>
       </c>
       <c r="K21">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="L21">
         <v>3.4</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>120.5</v>
+        <v>125</v>
       </c>
       <c r="N21">
         <v>32.4</v>
@@ -31166,14 +28522,14 @@
         <v>1.8</v>
       </c>
       <c r="K22">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>118.99999999999999</v>
+        <v>123.19999999999999</v>
       </c>
       <c r="N22">
         <v>31.4</v>
@@ -31214,14 +28570,14 @@
         <v>1.7</v>
       </c>
       <c r="K23">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="L23">
         <v>3.2</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>117.20000000000002</v>
+        <v>121.20000000000002</v>
       </c>
       <c r="N23">
         <v>32.799999999999997</v>
@@ -31262,14 +28618,14 @@
         <v>1.6</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>116.6</v>
+        <v>120.1</v>
       </c>
       <c r="N24">
         <v>32</v>
@@ -31310,14 +28666,14 @@
         <v>1.6</v>
       </c>
       <c r="K25">
-        <v>2.2000000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="L25">
         <v>2.7</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>115.3</v>
+        <v>118.6</v>
       </c>
       <c r="N25">
         <v>32.200000000000003</v>
@@ -31358,14 +28714,14 @@
         <v>1.5</v>
       </c>
       <c r="K26">
-        <v>2.2999999999999998</v>
+        <v>5.7</v>
       </c>
       <c r="L26">
         <v>2.5</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>116.5</v>
+        <v>119.9</v>
       </c>
       <c r="N26">
         <v>32.5</v>
@@ -31400,20 +28756,20 @@
         <v>110.4</v>
       </c>
       <c r="I27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>1.5</v>
       </c>
       <c r="K27">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>118.80000000000001</v>
+        <v>122.10000000000001</v>
       </c>
       <c r="N27">
         <v>32.9</v>
@@ -31426,6 +28782,65 @@
       <c r="A28">
         <v>2016</v>
       </c>
+      <c r="B28">
+        <v>69.7</v>
+      </c>
+      <c r="C28">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>3.4</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>113</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1.5</v>
+      </c>
+      <c r="K28">
+        <v>5.8</v>
+      </c>
+      <c r="L28">
+        <v>2.1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>124.39999999999999</v>
+      </c>
+      <c r="N28">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="O28">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
